--- a/static/导入模板.xlsx
+++ b/static/导入模板.xlsx
@@ -19,12 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -34,10 +46,6 @@
   </si>
   <si>
     <t>机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,29 +371,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
